--- a/data/hotels_by_city/Dallas/Dallas_shard_502.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_502.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>amysK1474SY</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Lacey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r580691733-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>We stayed here as we toured the Bluebonnet Trails.  We could not have asked for a cleaner, more quiet hotel!  We were very pleased with our room and the quality of the furnishings and linens, especially for the price.  Very quiet rooms even though you are so close to the highway.  Standard free breakfast.  We will be back!More</t>
   </si>
   <si>
+    <t>Waynette-3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r584556749-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Check in was great as easy had a very friendly staff. Very clean room and bathroom. Pool was awesome the spa was kinda dirty on the walls just need a good cleaning I think could have been stained not sure. I would definitely stay again More</t>
   </si>
   <si>
+    <t>Chaz_P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r583333114-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>We stayed at the La Quinta in Ennis for the annual Polka Fest and run. We found there to be adequate and well-lit parking, friendly front desk staff and a clean / comfortable room. We used the pool - and found it and the surrounding area to be clean. However, planting a tree in the area near the tree might provide some much needed shade.More</t>
   </si>
   <si>
+    <t>rlang18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r582659080-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>Great place to relax. Swimming pool , hot tub and exercise room.  We had 2 queen size beds and a large room with recliner . The shower was the best I have had in a hotel for quite awhile.  Manager was very helpful and answered all of our question and made some helpful recommendations.More</t>
   </si>
   <si>
+    <t>James H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r563281593-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Willie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r560748134-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t xml:space="preserve">Great place to stay with a good selection of eating places  in the vicinity. The room was clean and pretty comfortable. When traveling with pet it’s hard to find a nice place and still have a good stay.  We plan to stay there on our next trip through the area. </t>
   </si>
   <si>
+    <t>Monica J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r558948053-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r558948031-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>Okay for a overnight stay. The bed was very hard to our liking. The breakfast area was very kept very clean, compared to most. The food was fresh and plentiful. The staff was friendly and helpful. There are better hotels in the area, in my opinion.</t>
   </si>
   <si>
+    <t>lorenzow2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r553675657-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>I was scheduled to stay at hotel because of damage to home.  I planned to stay 4 days, however, because of itching, smell and swelling I had to move out sooner.  I thing an animal had stayed in my room and cause the reaction.</t>
   </si>
   <si>
+    <t>E7934BAgaryg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r553547470-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>Rooms were very clean and comfortable. Hotel staff was very courteous and helpful. Stayed here on our way to Galveston to catch a cruise. Was about a 4 hour drive to the port. A very nice place to stay. More</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r551402067-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>Excellent accommodations.  Reception staff very courteous and professional.  Bed exceptionally comfortable (Executive King).  Overall cleanliness was very good; understand that pets can stay in this hotel, so there may be some extra animal fur in carpets (overall not bad and surprisingly clean)More</t>
   </si>
   <si>
+    <t>TXAgitator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r550456468-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>I have been staying here regularly for the past several years and really like this hotel and its staff. It is far enough away from the Interstate to allow you to get a good, quiet night of rest in the consistently clean, comfortable rooms they have. The outdoor pool and hot tub is a plus when it’s sunny and warm out!More</t>
   </si>
   <si>
+    <t>RichardHollowayo566</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r545260800-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>We had the best nights sleep as well as an awesome desk clerk! The breakfast was ready and hot, the bathroom was prefect for my wife with the chair in the shower! The fitness room, and pool are super clean!! We loved the staff More</t>
   </si>
   <si>
+    <t>Misterbunns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r543203862-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>What a gem of a find just off I-45!! Price very reasonable, everything in working order, and a reasonable priced washer and dryer! Also, a very friendly and kind staff . The breakfast was ok for a hotel, but it was still filling and tasty.Definitely will stay here again while traveling!More</t>
   </si>
   <si>
+    <t>blazingstarbooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r537312592-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>Was pleasantly surprised to find this clean and quiet motel so close to I45 in Ennis. We used the ADA room which greatly assisted my 90-year-old companion to have a safe and pleasant stay. The breakfast was great!More</t>
   </si>
   <si>
+    <t>teachermomgrandma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r528200524-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>I go out of my way to stay at the Ennis LaQuinta because of the marvelous staff, pristine pool, and delicious breakfast.  They are also pet-friendly.  I also appreciate earning points at LaQuinta.  Be sure to sign up for their rewards program.  Ennis is a wonderful community.  They have festivals, lots of restaurants, and many friendly people.More</t>
   </si>
   <si>
+    <t>Y1884UDgarym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r527736580-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
     <t>This was my second time staying here. For what I paid I considered it a good value. Only real complaint was the breakfast was cold and we came in at 6am. The second and third day it was hot. I will stay here againMore</t>
   </si>
   <si>
+    <t>837philiph</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r527173981-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>I make a trip every two months to Houston. This LQ is half way between my destination. It is easy to get to. There are verity of places to eat within five minutes, close to shopping. The staff have always been helpful to my needs.More</t>
   </si>
   <si>
+    <t>mao715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r525847065-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t xml:space="preserve">Pricing on the room was a little over priced. Night was good up until it was time to go to bed pulled out sofa bed to only be laying on what was springs covers looked stained, went to front desk to ask for extra cover &amp; was told the bed has one already, umm lk ok I clearly seen that I asked for a "extra" one.. Then woke up at 9:15  to have breakfast only to be told it ended at 9, seriously all the money I paid to not get to have breakfast, very bad breakfast hours!! </t>
   </si>
   <si>
+    <t>MannyGL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r473738217-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>txgirl049</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r473274830-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -630,6 +696,9 @@
     <t>I have visited this hotel twice in the last month. I found it clean and quiet, with friendly clerks at check in. Wood flooring in bathroom is nice, but lighting needs attention. The second visit was room 302, needed light bulbs changed out in the bathroom....One was out over the vanity, another out overhead. Its difficult to apply makeup or shave without enough light. My family in another room commented that their bathroom was dark as well.</t>
   </si>
   <si>
+    <t>BILLY H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r473307792-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -645,6 +714,9 @@
     <t>Nice, comfortable lodging in Ennis. Good location just off major highway, easy access. Friendly staff. Nice breakfast. Nice, large room. Pet friendly. Tourist brochures in lobby with coupons to several local businesses.</t>
   </si>
   <si>
+    <t>719ariannas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r472821511-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -660,6 +732,9 @@
     <t>Really nice, spacious rooms. Big and clean bathroom. Nice lobby and breakfast area. DirecTV in the rooms. Wifi was a little slow. About 25 minutes from the Waxahachie Convention Center. Surrounded by lots of dining options. Really good value</t>
   </si>
   <si>
+    <t>richardbw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r472018475-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -678,6 +753,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Emmett K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r385704242-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r378897461-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -714,6 +795,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>W6019CJlindam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r374725515-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -732,6 +816,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>J R R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r370101652-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -747,6 +834,9 @@
     <t>The accommodations were outstanding.  We travel with our Fur Gurlz and we were welcomed like family.  The quality of the overall accommodations for the money spent was great!When we drove up to the establishment, we were stunned by the neatness, quality, and care of the landscape.  Incredibly neat and organized.  Well maintained property.We certainly would stay again, when in the area.</t>
   </si>
   <si>
+    <t>CPINSL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r369212058-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -762,6 +852,9 @@
     <t>I've only stayed at La Quinta's a handful of times over the years but this hugely positive experience has changed my perception.  I arrived much later than expected and found the hotel staff to be very accommodating and helpful.  The bed and the overall room was as good as the Marriott I spent the night before.  La Quinta has improved their rooms and service to be on par with the full service hotels.  The morning staff and General Manager were very helpful in making some lunch arrangements for a last meeting in the area.  Excellent hotel and staff.</t>
   </si>
   <si>
+    <t>WorldTravelerCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r348642853-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -780,6 +873,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r345812731-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -816,6 +912,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Nilam K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r323427948-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -834,6 +933,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>L3085XAwilliamt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r322546672-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -849,6 +951,9 @@
     <t>This hotel was very clean, easy to find off a major Interstate Hwy. , conveniently located to major stores &amp; eating establishments. Driving distance to points of interest. Was glad to see the nice breakfast area and a connected  friendly lounging area. Nice swimming pool &amp; Jacuzzi outside.</t>
   </si>
   <si>
+    <t>Monseyfire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r321563055-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -864,6 +969,9 @@
     <t xml:space="preserve">I got stuck here because of flooded highways in the area. Staff was very nice and accommodating, place was clean, bed was comfortable, shower had good pressure and was hot, breakfast was ok, mostly out of the box items Plus waffles. I would stay here again. </t>
   </si>
   <si>
+    <t>Gary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r323097908-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -879,6 +987,9 @@
     <t>Very clean and attractive. Good towels. Comfortable beds. You can choose a healthy breakfast! Nice place when you have a pet. There are grassy areas. staff was very helpful. The pool wasn't heated nor the hot tub but that's probably seasonal. Very happy with our stay.</t>
   </si>
   <si>
+    <t>JimSr08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r321003149-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1005,9 @@
     <t>Just off I 45 at Ennis, Easy access, very quiet, reasonable, clean safe.  Great front desk.  recommended "Cotton Patch" for Dinner.  A solid recommendation.  Found Brams for ice cream on main drag.  Elevators, morning breakfast, outdoor pool.  Easy to get back on the interstate, filled, fueled and rested at an attractive price</t>
   </si>
   <si>
+    <t>Pamela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r317149853-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1026,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>phototraveller22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r315932929-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1044,9 @@
     <t xml:space="preserve">Very clean room and very well maintained. Looks very new. It was not extremely busy when I arrived and I like my hotels quiet. I was surprised to see quite a lot of cars on the parking lot the next morning. Hadn't heard a thing at night. Easy to reach from the highway but no highway noise (at least at the back where my room was. </t>
   </si>
   <si>
+    <t>nbrock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r307893031-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1062,9 @@
     <t>Wonderful! We booked rooms for the entire wedding party and were very pleased.  The location is convenient, and pleasant with a nice setback from the freeway.   Facilities were clean and comfortable.  Special kudos to Kristy for everything from making reservations to handling our checkout.  She has a kind spirit that makes one feel welcome immediately.  She even made sure our original price was dropped to match a new lower rate!!</t>
   </si>
   <si>
+    <t>Loretta S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r303067479-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1086,9 @@
     <t>The hotel room was clean. But the hotel is dark and uninviting. Some staff were very nice but the staff member that booked me in the room not so much. After waiting all day for my reserved room, I did not get it and repeatedly asked by him to take a room on the first floor, after my advising him that I preferred a higher floor and the dangers of being located on the first floor. I call him the gate keeper, doesn't matter what you have reserved the keeper decides your fate. I left a day early in an effort to get out of there and get back to my favorite hotel chain.More</t>
   </si>
   <si>
+    <t>jim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r298384071-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1107,9 @@
     <t>Very Good Experience Overall, Felt Secure and safe, room was clean and comfortable, staff was professional and maintained smiles, breakfast was good. Pool area was clean as well as the pool. This was a test run for bringing our small dog that had never been to a hotel and she did good. it seems I have a knack for Hotels and Little league Teams or soccer teams etc. we were on the second floor and there was noise from kids on the third floor that ran the halls until about 1:00am, Just to be Clear we did NOT inform Management because it was something we could live with and having our dog (that only barked a couple of times) we felt that it was a minor inconvenience. I have always felt that when it comes to kids and noise that it's NOT a Hotel Management PROBLEM it's a PARENTING PROBLEM. so I do not hold the Hotel responsible. We enjoyed our stay and again it was Clean and the staff was very friendly. Would recommend this hotel to anyone passing through Ennis TX  More</t>
   </si>
   <si>
+    <t>Belinda E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r299068421-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1140,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>DavidLeavins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r291233445-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1161,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Leah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r287504368-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1179,9 @@
     <t>This hotel was perfect, our room was cleaned every morning and we got new pool towels every day and the breakfast was great. The staff was friendly and helpful. We was right in town where we needed to be and plenty of restaurants to choose from.</t>
   </si>
   <si>
+    <t>lvgrammy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r284537137-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1197,9 @@
     <t>We came to Midlothian, Texas for a family reunion, and due to unexpected  circumstances, I had to find a place to stay in the middle of the night upon our arrival.  All nearby hotels were fully booked &amp; I was sent to the La Quinta in Ennis, Texas. The night manager upgraded me to a suite at no charge. The room was lovely and the bed comfortable. It was an unexpected surprise to find that the breakfast that came with the room was very good. What one hears about gracious Texans was certainly true at this La Quinta.</t>
   </si>
   <si>
+    <t>carolelazarini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r282419737-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1215,9 @@
     <t>I traveled to Ennis to attend a wedding at Winding Ridge Bed And Breakfast on the outside of Ennis.. I book a room for two night at La Quinta in Ennis located just off of I 45.The property was clean and well managed. My room was spotless with built in fridge and microwave, very quiet even though the hotel was book because of the local high school graduation. The free breakfast was excellent quality. My entire experience there was great. Now I will check for a local La Quinta when I have to travel again!</t>
   </si>
   <si>
+    <t>Kelsey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r281210352-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1233,9 @@
     <t>I recently had a meeting that was held here. It went great. The staff was very friendly and helped out with all of my out of the box request. Hans was very helpful setting the meeting space up for me and working to make sure i had everything i needed for my sessions.</t>
   </si>
   <si>
+    <t>robin s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r280896519-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1254,9 @@
     <t>I stayed here the weekend of June 6th 2015 with three close friends. We were in the area for a memorial service in a neighboring small town. We chose La Quinta for proximity and reputation in general. None of us looked at any reviews prior to the trip.We arrived around 11:00 am and graciously given a room as soon as one was made ready. In the meantime, we were invited to enjoy the pool area - which was very clean and inviting.  Once the room was ready, it was spacious and very clean. The beds were very comfortable and the pillows felt like down - a big bonus. The young man at the front desk was very friendly and gave us several recommendations for dinner. The one we chose was excellent. After returning from dinner, we spent the remainder of the evening at the pool. Even though the hotel was full, it was quiet and we had the pool area mostly to ourselves.The complimentary breakfast was nice. Waffles, eggs, biscuits, sausage, assorted pastries and fruit, assorted cereals and even yogurt - plenty of hot coffee, tea, and juice. The dining area was very clean and the food refilled frequently. Overall, our stay was very nice - not a single negative experience.More</t>
   </si>
   <si>
+    <t>Janet S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r274950246-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1275,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Julie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r266706694-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1293,9 @@
     <t xml:space="preserve">This Laquinta was great, I don't know what all the bad reviews are about! Very comfortable rooms, beds and courteous staff!! Reasonably priced and right near all bluebonnet festivities, which is what we came for! The bluebonnet fest was kind of disappointing! But the drive out to the winery was beautiful and worth our drive from Okc </t>
   </si>
   <si>
+    <t>IAmChaumet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r263673980-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1315,9 @@
   </si>
   <si>
     <t>This hotel is not what it used to be. It was a terrible experience from the beginning. The front desk attendant, Sam, was extremely rude to me and hung up on me when I tried to make a reservation. The only reason I stayed at this location is because Ennis doesn't have many options. I stayed here not long after it opened and it was clean and had a fresh smell. Unfortunately our room wasn't clean to our liking. We had a spot on our shower curtain, the shower needed thorough cleaning, and there was some smell in the room that aggravated both mine and my mothers allergies. The recliner in our room was broken and the paint on the wall was severely chipped which looked unkept. When we asked for more towels we were told they didn't have any and there was an issue with our TV that only allowed us to watch about 10 channels. This has got to be one of the worst experiences I've ever had at a LaQuinta and at any hotel.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r259798451-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
@@ -1185,6 +1344,9 @@
 I have always stayed at La Quinta because of the customer service and clean rooms. After this I will rethink where I...The night check in person (Jarrod) was not able to provide me with an Handicap accessible room in the single room I requested. However, he did point out that he had two handicap rooms available but he would need to charge me an additional $60.00 for the suit handicap room. I explained that I was a platinum rewards member and that since he did not have a handicap room available in a single that I felt it would be good customer service on his part to allow me one of the two handicap rooms available at the single room cost. He disagreed and said that regardless of my physical limitations that he would still need to charge me the additional $60.00 for the suit price as opposed to the single cost.It had been a long day to begin with, I was tired and it was after midnight and just needed any room at this point. I actually would have paid the additional requested fee but I did not appreciate the way I was spoken to, nor his unprofessional attitude. The part that really offended me the most was that he told the person on his cell that he would have to call them back because of "the problem" he was having with someone wanting to check in... I have always stayed at La Quinta because of the customer service and clean rooms. After this I will rethink where I decide to spend my money when I travel to Dallas for the weekend.disappointed loyal customer. More</t>
   </si>
   <si>
+    <t>Maggie and Carl M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r219350560-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1365,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r219173223-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1398,9 @@
     <t>I stay at this hotel on a regular basis and am always impressed with how clean this place is! The only thing I noticed is the need for new poolside furniture and it would have been nice to have had the poolside restroom open- it was locked during the last two visits. One thing I have come to love is the fact this hotel is far enough away from the road noise of  Interstate 45 to where it helps with getting a good night of rest.</t>
   </si>
   <si>
+    <t>Cece P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r214429975-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1416,9 @@
     <t>Beware not all that..breakfast is a joke! Door area have lots of bugs..towels are few and blankets are thin...They charge too much for nothing...Pool has old furniture with straps...really!! Safety not big..they did not id husband who walked up and got a new card made no questions asked!!</t>
   </si>
   <si>
+    <t>Michael C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r214776375-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1434,9 @@
     <t>We usually choose LaQuinta and have good luck with this choice 75% of the time.  The LaQuinta in Ennis,  TX is the best we've stayed at yet.  It is very clean, the staff is friendly, and the breakfast is awesome.</t>
   </si>
   <si>
+    <t>Nancy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r205471068-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1455,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>HillCountryFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r205755332-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1473,9 @@
     <t>Very clean and nice, comfortable and affordable. Staff and management very friendly and helpful. We had not planned on this stay, it was due to a vehicle breakdown so we had no choice but to stay in Ennis. Fortunately the LaQuinta was nearby and was perfect for a difficult situation.</t>
   </si>
   <si>
+    <t>Mackensie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r204329054-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1494,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Stacy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r204323334-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1512,9 @@
     <t>Best part of this hotel was that they were pet friendly and at no charge!! Great and plentiful continental breakfast, eggs, sausage, biscuit, yogurt and a nice touch with carnation breakfast packets. Very easy access off the highway (right behind the McDonalds) and very quiet because they are far enough away from the highway that there was no highway noise. Bubbas BBQ and McDonalds within walking distance. Rooms were very clean and the ac was left on which was awesome to walk into after it being 90 degrees outside. Front desk was very accomodating, Kristy at the front desk was great and was very courteuous about getting us pool towels and making sure everything was good in our room. Overall just a great stay! Definitely will recomend this hotel to everyone i know and will keep coming back.More</t>
   </si>
   <si>
+    <t>Linda  S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r203978458-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1530,9 @@
     <t>This motel was very clean and reasonable in price.  Those are my top priorities.  The location was a bit hard to find but well worth the trouble.  I love the town of Ennis Texas and everyone at the motel was friendly  The breakfast was better than most complimentary motel breakfast.</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r201178117-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1542,9 @@
     <t>04/15/2014</t>
   </si>
   <si>
+    <t>Faintrocket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r201135401-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1560,9 @@
     <t xml:space="preserve">When i walked in the front door of this La Quinta, it looked great until i made my way to the elevator.  It looks like a remodel but its just a new paint job.  The floors throughout are dirty especially when you get into your room.  The beds fill like concrete.  I've stayed at different La Quintas throughout most of my travels but this one may make me change my mind!! </t>
   </si>
   <si>
+    <t>bunk626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r200663720-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1578,9 @@
     <t>The entire staff was very friendly and helpful; room &amp; bathroom were clean and bed was comfortable.  Reserved a suite; the room was so large that other family members hung out in our room to play games. The breakfast was very good and hot. I would stay here again.</t>
   </si>
   <si>
+    <t>Melba B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r200432117-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1599,9 @@
     <t>I try to stay at a Laquinta Hotel anytime I travel.  I sometime travel with a pet and this hotel is pet friendly. I have always been satisfied with the accomedations and friendly staff.  I am given a room close to outdoors for my pet. I also get an upgrade when I have stayed in this hotel.  Everyone has been very friendly and helpful when I have stayed for more than a couple of nights.  We travel to visit family and stay for two or three weeks.  Having a laundry room for customers is very nice and helpful.  The staff cleans our room and gives us anything we need.  Conversing with other people staying at the Hotel is very rewarding.  You get to meet people from all over the states.  The updates you are doing on some of your older hotels is very good.  I have stayed in new ones &amp; updated ones.  Both have been great.More</t>
   </si>
   <si>
+    <t>carjockey03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r197727820-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1620,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Barbara G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r197554132-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1638,9 @@
     <t>This hotel was very convenient to major highways.  It was very clean and pet friendly. Great value for the money.  Ennis is a very cute town, so if you have a need to be there, this is a good place to stay.</t>
   </si>
   <si>
+    <t>alwayshappy30183</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r197095577-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1656,9 @@
     <t>Very clean, nice place.  Close to everything.  Delicious breakfast with eggs, sausage, waffles, fruit, yogurt, etc.  Nice exercise facility, but no treadmill. Kristy at the front desk was super friendly, super accommodating.  Pet friendly, with no extra fees. I definitely recommend this hotel.</t>
   </si>
   <si>
+    <t>anbkpl5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r197347608-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1674,9 @@
     <t>It was a very clean hotel with lots of reat staffers.  They really made my relocation transition a lot smoother.  They were helpful with suggestion to place to live, eat, shop and schools for my children.  They really made me feel at home.  Woould definitly stay there on a just because trip.</t>
   </si>
   <si>
+    <t>Charles W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r194806481-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1695,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r193227538-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1734,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>LVNtheDRM247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r190040926-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1755,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Sukgeun C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r186448892-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1788,9 @@
     <t xml:space="preserve">Wonderful front desk check in and out no problems room was ready and waiting nice and clean also would like to  compliment the maid service very nice lady. Thanks again will stay at more LaQuinta hopefully the will live up to you standards. </t>
   </si>
   <si>
+    <t>jdana130</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r185830477-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1815,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>36geraldg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r176177077-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1833,9 @@
     <t>Very best of every thing. Would recommend this inn to all my family and friends. Friendly, helpful clerks, very clean, great breakfast. East on/off access, but far enough away from main highway to avoid traffic noise.</t>
   </si>
   <si>
+    <t>sunandfun247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r170837558-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1869,9 @@
     <t xml:space="preserve">This particular La Quinta is one of my favorite places to stay whenever I want to enjoy a break from work in the Dallas area. It's also a better value and safer than any of the hotels in the south Dallas area, not to mention far enough from the freeway where people can sleep with minimal noise. The staff is great, the rooms are clean, and the pool/ hot tub area is very inviting after a hard day at work. I've been a regular at this hotel for a few years now and plan to be in the years ahead! </t>
   </si>
   <si>
+    <t>Buncheygirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r169921338-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1882,9 @@
   </si>
   <si>
     <t>Great staff,  beautiful clean room, good hot breakfast, easy access from interstate, easy checkout. Everything at this hotel was a plus plus experience. Most of all I had been looking for post cards and they have beautiful state post cards. Will return!!</t>
+  </si>
+  <si>
+    <t>dcarson4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r169704449-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
@@ -1670,6 +1907,9 @@
 Our only complaints were really not the fault of the hotel. When we returned to our room after a trying day with family, the hotel had lost power due to a storm earlier in the evening. It was about 8:30 or so and almost dark. We walked up to our room, thinking it would be back on soon. As it got darker and our cell phones were our only light and the batteries were almost dead, we decided to go to bed early. Finally the power came back on around 10:30. We just went back to sleep. A few minutes later we were awakened by kids screaming and running up and down the hall, doors slamming and some really weird bumping sounds that sounded like it was just outside our room and then it would sound as though it was moving away. This happened over and over again. Finally it got quiet and we went back to sleep. Early the next morning we heard all these noises again. When we went to leave our room there was a kid (maybe 4 or so), along with her mother and...We stayed at this hotel for 2 nights while visiting family in Ennis. Overall it is a fine hotel. The rooms were clean and the beds were comfortable and the staff was helpful. I wasn't overly impressed with their free breakfast, but I usually am not impressed by these kinds of freebies. Our only complaints were really not the fault of the hotel. When we returned to our room after a trying day with family, the hotel had lost power due to a storm earlier in the evening. It was about 8:30 or so and almost dark. We walked up to our room, thinking it would be back on soon. As it got darker and our cell phones were our only light and the batteries were almost dead, we decided to go to bed early. Finally the power came back on around 10:30. We just went back to sleep. A few minutes later we were awakened by kids screaming and running up and down the hall, doors slamming and some really weird bumping sounds that sounded like it was just outside our room and then it would sound as though it was moving away. This happened over and over again. Finally it got quiet and we went back to sleep. Early the next morning we heard all these noises again. When we went to leave our room there was a kid (maybe 4 or so), along with her mother and another person and they were throwing a baseball up and down the hall and it was bouncing off the walls and doors. Apparently there was some baseball or softball tournament in town and several of the groups were staying there. We should have complained to the front desk that night, but we were just too tried to mess with it.All in all, I will stay there again.More</t>
   </si>
   <si>
+    <t>Electrascoog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r166396117-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1943,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>LorrifromWelcome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r160685069-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1736,6 +1979,9 @@
     <t>During my recent stay at the La Quinta Inns and Suites Ennis TX I just could not sleep.  Not due to any noise or anything i just have trouple sleeping in unfamiliar places.  Anyway i was up at all hours in the night and every time i passed the front desk (which btw the whole lobby looks brand new and was shocked to find out it had been there a couple years) i was met with great conversation by a very nice young man.  Im sure his name was Trey and he was a welcome difference to the usual sort of creepy looking people you often see working the graveyard shift at a hotel.  So overall i'd give this place an 12 if i could.More</t>
   </si>
   <si>
+    <t>Lavender_Breeze</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r159212480-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1754,6 +2000,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Krysse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r155651921-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +2024,9 @@
     <t>The staff were very friendly on check in and check out.  Room was clean and quiet.  Bed was comfortable (a little hard, but definitely sleep quality).  Shower pressure was great (and hot) for a nice shower after being on the road all day.  It is just off the highway so traffic in and out was easy.  Internet was fast (and free) for usual surfing.  Hot breakfast was nice.  Texas shaped waffles, sausage, biscuits, and eggs were ready for a quick bite before hitting the road again.  Cereal, juice, coffee, muffins, bagels, fruits were also available.  For a buffet style breakfast, I would rate it top notch. They have an outdoor pool and hot tub but we didn't try it out.  It looked well kept and nice.More</t>
   </si>
   <si>
+    <t>Jen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r155555081-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2045,9 @@
     <t>I stayed at this hotel on 3/23. The hotel is very clean and nice and looks to be fairly new. Its far enough away from the highway that i heard absolutely nothing from the freeway.The morning lady, cant remember her name, was the best. Very friendly and nice. She was handling the breakfast and the front desk and their was alot of customers eating but she handled it well. Breakfast was never empty, she kept it full and did it all with a smile. Its a full breakfast also, Texas waffles, amazing sausage, eggs, biscuits, dansihes and fruit. I thought it was great that she always new when the coffee was out and had the next pot out within a minute. Kudos! I definatly recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>boyingtonj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r152810003-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1808,6 +2063,9 @@
     <t>Had an amazing time. The pool was awesome, the room was amazing, and the staff was the best. Especially beth. She was great. She did so much to make us feel very comfortable. The shuttle was great as well. I loved the pool, so so warm. Perfect for this pregnant lady. Bed was comfy!</t>
   </si>
   <si>
+    <t>O1643UNnancys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r152579950-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1826,6 +2084,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>TexanNative_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r144113396-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2132,9 @@
     <t>My stay was excellent.  I came in pretty late, I thought the rate was a little high for my length of stay ($85 for a couple hours sleep).  But the person who checked my in was such a nice guy he talked me out of going somewhere else.  Got up eairly had breakfast, pretty good overall and had a conversation with the same man who had checked me in.  Very nice kid, i really wish I could have gotten his name.  Overall I would say this was a great stay, will be coming back.</t>
   </si>
   <si>
+    <t>312carlaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r137632929-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1889,6 +2153,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>ginalaza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r137252170-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1935,6 +2202,9 @@
   </si>
   <si>
     <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>krasy2001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1382143-r96881968-La_Quinta_Inn_Suites_Ennis-Ennis_Texas.html</t>
@@ -2457,43 +2727,47 @@
       <c r="A2" t="n">
         <v>58725</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>165558</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2517,50 +2791,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58725</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>165559</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2578,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58725</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>165560</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2639,56 +2921,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58725</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>165561</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2704,56 +2990,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58725</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>165562</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2765,56 +3055,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58725</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5091</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2838,50 +3132,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58725</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>44148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2895,50 +3193,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58725</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2962,50 +3264,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58725</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3029,50 +3335,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58725</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>165563</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3096,50 +3406,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58725</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>165564</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3161,56 +3475,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58725</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3232,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58725</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>165565</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3293,56 +3615,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58725</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>165566</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3364,56 +3690,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58725</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>165567</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3429,56 +3759,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58725</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>165568</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3500,56 +3834,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58725</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>165569</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3571,56 +3909,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58725</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>165570</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3642,56 +3984,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58725</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>164091</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3703,56 +4049,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58725</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>165571</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3776,50 +4126,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58725</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>165572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3843,50 +4197,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58725</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155571</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3900,50 +4258,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58725</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>165573</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3967,50 +4329,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58725</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>165574</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4034,50 +4400,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58725</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>165575</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4101,50 +4471,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58725</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>49021</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4158,50 +4532,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58725</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4225,50 +4603,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58725</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>165576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4292,50 +4674,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58725</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>165577</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4355,50 +4741,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58725</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>165578</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4416,50 +4806,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58725</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>165579</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4473,50 +4867,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58725</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4530,50 +4928,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58725</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>165564</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4587,50 +4989,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58725</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>165580</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4648,50 +5054,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58725</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>165581</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4715,50 +5125,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58725</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>46693</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4772,50 +5186,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58725</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4839,50 +5257,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58725</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>165582</v>
+      </c>
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4900,50 +5322,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58725</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>9717</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4957,50 +5383,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58725</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>165583</v>
+      </c>
+      <c r="C41" t="s">
+        <v>336</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5014,50 +5444,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58725</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>165584</v>
+      </c>
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5075,50 +5509,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58725</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>75571</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5136,41 +5574,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58725</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>42132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -5189,50 +5631,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58725</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>24426</v>
+      </c>
+      <c r="C45" t="s">
+        <v>363</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="J45" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5256,50 +5702,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58725</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>165564</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5313,50 +5763,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58725</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>165585</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5376,50 +5830,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58725</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>108837</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5443,50 +5901,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58725</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>165586</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="O49" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5500,50 +5962,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58725</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>165587</v>
+      </c>
+      <c r="C50" t="s">
+        <v>393</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5563,50 +6029,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58725</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>165588</v>
+      </c>
+      <c r="C51" t="s">
+        <v>399</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="K51" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5626,50 +6096,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58725</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>165589</v>
+      </c>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="J52" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5687,50 +6161,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58725</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>31829</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5754,41 +6232,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58725</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>23899</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5807,50 +6289,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58725</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>165590</v>
+      </c>
+      <c r="C55" t="s">
+        <v>425</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J55" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K55" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5864,50 +6350,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58725</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>433</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5931,50 +6421,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58725</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>165591</v>
+      </c>
+      <c r="C57" t="s">
+        <v>440</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="J57" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5994,50 +6488,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58725</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>13412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="J58" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6061,50 +6559,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58725</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>165564</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="J59" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K59" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6122,50 +6624,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58725</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>165592</v>
+      </c>
+      <c r="C60" t="s">
+        <v>458</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="J60" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6189,50 +6695,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58725</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>464</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6256,50 +6766,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58725</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>18872</v>
+      </c>
+      <c r="C62" t="s">
+        <v>470</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="J62" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="K62" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="O62" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6323,50 +6837,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58725</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>165593</v>
+      </c>
+      <c r="C63" t="s">
+        <v>477</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6390,50 +6908,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58725</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>165594</v>
+      </c>
+      <c r="C64" t="s">
+        <v>483</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="J64" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O64" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6457,50 +6979,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58725</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>34585</v>
+      </c>
+      <c r="C65" t="s">
+        <v>490</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="J65" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="K65" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6524,50 +7050,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58725</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>165595</v>
+      </c>
+      <c r="C66" t="s">
+        <v>496</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="J66" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="K66" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="L66" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6591,35 +7121,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58725</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C67" t="s">
+        <v>502</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="J67" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6627,10 +7161,10 @@
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O67" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6651,42 +7185,43 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58725</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>165596</v>
+      </c>
+      <c r="C68" t="s">
+        <v>506</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="J68" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="K68" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="L68" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
@@ -6715,50 +7250,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58725</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>165597</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6782,50 +7321,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58725</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>165598</v>
+      </c>
+      <c r="C70" t="s">
+        <v>518</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="K70" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="L70" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="O70" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6849,50 +7392,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58725</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>165599</v>
+      </c>
+      <c r="C71" t="s">
+        <v>525</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
       <c r="J71" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O71" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6916,50 +7463,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58725</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>4241</v>
+      </c>
+      <c r="C72" t="s">
+        <v>532</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="J72" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="K72" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6983,50 +7534,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58725</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>165600</v>
+      </c>
+      <c r="C73" t="s">
+        <v>538</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="J73" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="K73" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="L73" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7050,50 +7605,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58725</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>165601</v>
+      </c>
+      <c r="C74" t="s">
+        <v>544</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="J74" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="K74" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="L74" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O74" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7117,50 +7676,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58725</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>550</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="J75" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="K75" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="L75" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="O75" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7184,50 +7747,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58725</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C76" t="s">
+        <v>557</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="J76" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="K76" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="L76" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7251,50 +7818,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58725</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>433</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="J77" t="s">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="K77" t="s">
-        <v>495</v>
+        <v>567</v>
       </c>
       <c r="L77" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7318,50 +7889,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58725</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>165602</v>
+      </c>
+      <c r="C78" t="s">
+        <v>570</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="J78" t="s">
-        <v>500</v>
+        <v>573</v>
       </c>
       <c r="K78" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="L78" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="O78" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7385,50 +7960,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58725</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>165603</v>
+      </c>
+      <c r="C79" t="s">
+        <v>577</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="J79" t="s">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="K79" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="L79" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7452,50 +8031,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>58725</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>433</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="J80" t="s">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="K80" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="L80" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7519,50 +8102,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>58725</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>165604</v>
+      </c>
+      <c r="C81" t="s">
+        <v>588</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="J81" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="K81" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7576,35 +8163,39 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>58725</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C82" t="s">
+        <v>502</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="J82" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7612,10 +8203,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="O82" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7636,51 +8227,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>58725</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>165605</v>
+      </c>
+      <c r="C83" t="s">
+        <v>597</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="J83" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="K83" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="L83" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7704,50 +8296,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>58725</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>165606</v>
+      </c>
+      <c r="C84" t="s">
+        <v>603</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="J84" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="K84" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="L84" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="O84" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7771,41 +8367,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>58725</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>165564</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="J85" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="K85" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="L85" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -7834,41 +8434,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>58725</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>165607</v>
+      </c>
+      <c r="C86" t="s">
+        <v>615</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="J86" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="K86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L86" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -7897,50 +8501,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>58725</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>165608</v>
+      </c>
+      <c r="C87" t="s">
+        <v>620</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="J87" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="K87" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="L87" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7964,50 +8572,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>547</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>58725</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>165609</v>
+      </c>
+      <c r="C88" t="s">
+        <v>627</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="J88" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="K88" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="L88" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8031,50 +8643,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>58725</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>433</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="J89" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="K89" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="L89" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="O89" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8098,50 +8714,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>58725</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>165610</v>
+      </c>
+      <c r="C90" t="s">
+        <v>639</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
       <c r="J90" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
       <c r="K90" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
       <c r="L90" t="s">
-        <v>563</v>
+        <v>644</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8165,50 +8785,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>564</v>
+        <v>645</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>58725</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>433</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>566</v>
+        <v>647</v>
       </c>
       <c r="J91" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
       <c r="K91" t="s">
-        <v>567</v>
+        <v>648</v>
       </c>
       <c r="L91" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8232,50 +8856,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>58725</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>165611</v>
+      </c>
+      <c r="C92" t="s">
+        <v>651</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="J92" t="s">
-        <v>572</v>
+        <v>654</v>
       </c>
       <c r="K92" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="L92" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8299,50 +8927,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>58725</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>165612</v>
+      </c>
+      <c r="C93" t="s">
+        <v>658</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
       <c r="J93" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
       <c r="K93" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="L93" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8366,50 +8998,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>58725</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>21664</v>
+      </c>
+      <c r="C94" t="s">
+        <v>666</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="J94" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="K94" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="L94" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8433,41 +9069,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>58725</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>165613</v>
+      </c>
+      <c r="C95" t="s">
+        <v>673</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>590</v>
+        <v>675</v>
       </c>
       <c r="J95" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
       <c r="K95" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="L95" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -8496,50 +9136,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>58725</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>165614</v>
+      </c>
+      <c r="C96" t="s">
+        <v>679</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>594</v>
+        <v>680</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>595</v>
+        <v>681</v>
       </c>
       <c r="J96" t="s">
-        <v>596</v>
+        <v>682</v>
       </c>
       <c r="K96" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="L96" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="O96" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -8557,50 +9201,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>58725</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>165615</v>
+      </c>
+      <c r="C97" t="s">
+        <v>686</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="J97" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="K97" t="s">
-        <v>603</v>
+        <v>690</v>
       </c>
       <c r="L97" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8624,35 +9272,39 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>604</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>58725</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C98" t="s">
+        <v>502</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>607</v>
+        <v>694</v>
       </c>
       <c r="J98" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8660,10 +9312,10 @@
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="O98" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8684,51 +9336,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>58725</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>433</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="J99" t="s">
-        <v>612</v>
+        <v>699</v>
       </c>
       <c r="K99" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="L99" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="O99" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8752,50 +9405,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>58725</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>165616</v>
+      </c>
+      <c r="C100" t="s">
+        <v>702</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="J100" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
       <c r="K100" t="s">
-        <v>618</v>
+        <v>706</v>
       </c>
       <c r="L100" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="O100" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8819,35 +9476,39 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>58725</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>165617</v>
+      </c>
+      <c r="C101" t="s">
+        <v>709</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>621</v>
+        <v>710</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="J101" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s"/>
@@ -8855,10 +9516,10 @@
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8879,51 +9540,52 @@
       <c r="V101" t="n">
         <v>0</v>
       </c>
-      <c r="W101" t="s"/>
-      <c r="X101" t="s"/>
-      <c r="Y101" t="s"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>58725</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>433</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>625</v>
+        <v>714</v>
       </c>
       <c r="J102" t="s">
-        <v>626</v>
+        <v>715</v>
       </c>
       <c r="K102" t="s">
-        <v>627</v>
+        <v>716</v>
       </c>
       <c r="L102" t="s">
-        <v>628</v>
+        <v>717</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>629</v>
+        <v>718</v>
       </c>
       <c r="O102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -8947,35 +9609,39 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>628</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>58725</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C103" t="s">
+        <v>502</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>630</v>
+        <v>719</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>631</v>
+        <v>720</v>
       </c>
       <c r="J103" t="s">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -8983,10 +9649,10 @@
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9007,36 +9673,37 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>58725</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C104" t="s">
+        <v>502</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="J104" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -9044,10 +9711,10 @@
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="O104" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9068,51 +9735,52 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>58725</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>165618</v>
+      </c>
+      <c r="C105" t="s">
+        <v>726</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="J105" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="K105" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="L105" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9136,7 +9804,7 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
